--- a/htp/raw-data/hto-samples-sheet.xlsx
+++ b/htp/raw-data/hto-samples-sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrprystupa/Projects/Alex-BINF-Pipelines/hashtag-pipeline/htp/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ADE553-AF3A-1349-B365-ABED627C06AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F63A51-AB90-5E4B-89DA-EB80D857011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{74BE5973-F59F-674B-95CE-2C747F872BFA}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{3048E093-0444-8C48-87A1-D24478648287}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>hto_run_name</t>
+  </si>
   <si>
     <t>path</t>
   </si>
   <si>
-    <t>hto_run_name</t>
+    <t>sample1</t>
+  </si>
+  <si>
+    <t>sample2</t>
+  </si>
+  <si>
+    <t>/path/to/sample1</t>
+  </si>
+  <si>
+    <t>/path/to/sample2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos (Narrow Body)"/>
     </font>
     <font>
       <sz val="12"/>
@@ -83,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,32 +437,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610B2EB-086A-C042-AE6B-92B131F3D9F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C075E1-2C5E-E846-9FDC-C3590439BE56}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="125.1640625" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="178.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
